--- a/Pixel-to-physical mapping sheet/Calculation.xlsx
+++ b/Pixel-to-physical mapping sheet/Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Uninterrupted_Traffic_Flow\Pixel-to-physical mapping sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FEBCB5-9E9D-4523-A980-6030584EE601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD8C8DE-FC58-42AC-B4F8-C4EE922B8464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAF57E62-A25C-4AB4-A0B0-C9151AA12DAC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>road_dimension</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>physical_Y</t>
+  </si>
+  <si>
+    <t>Top-Left ArUco Tag Anchor</t>
+  </si>
+  <si>
+    <t>User_pos_y</t>
+  </si>
+  <si>
+    <t>User_pos_x</t>
+  </si>
+  <si>
+    <t>Adjusted_pos_x</t>
+  </si>
+  <si>
+    <t>Adjusted_pos_y</t>
   </si>
 </sst>
 </file>
@@ -416,20 +431,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE41203-B4DB-4840-B7BF-4209AFC6CD7A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>28</v>
       </c>
@@ -465,12 +481,12 @@
         <v>5.845511482254697E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -484,7 +500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -500,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>670</v>
       </c>
@@ -514,6 +530,79 @@
       <c r="E7">
         <f>B7*E2</f>
         <v>26.304801670146137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>D7</f>
+        <v>27.628865979381441</v>
+      </c>
+      <c r="E14">
+        <f>E7</f>
+        <v>26.304801670146137</v>
+      </c>
+      <c r="G14">
+        <f>D14-A14</f>
+        <v>27.628865979381441</v>
+      </c>
+      <c r="H14">
+        <f>E14-B14</f>
+        <v>26.304801670146137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="E15">
+        <f>265</f>
+        <v>265</v>
+      </c>
+      <c r="G15">
+        <f>D15-A15</f>
+        <v>124</v>
+      </c>
+      <c r="H15">
+        <f>E15-B15</f>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
